--- a/JExcelPoi/src/main/java/output/Neg.xlsx
+++ b/JExcelPoi/src/main/java/output/Neg.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="GAJI" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
-    <sheet name="Neg" r:id="rId7" sheetId="3"/>
+    <sheet name="NEG" r:id="rId7" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>GAJI</t>
   </si>
@@ -206,10 +206,13 @@
     <t>BCA</t>
   </si>
   <si>
-    <t>Alamat Cell Negatif</t>
-  </si>
-  <si>
-    <t>Nilai Negatif</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
   <si>
     <t>D10</t>
@@ -2419,7 +2422,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2432,52 +2435,73 @@
       <c r="B1" t="s" s="0">
         <v>44</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B2" t="n" s="0">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C2" t="n" s="0">
         <v>-0.79</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B3" t="n" s="0">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C3" t="n" s="0">
         <v>-274497.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B4" t="n" s="0">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C4" t="n" s="0">
         <v>-110855.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B5" t="n" s="0">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C5" t="n" s="0">
         <v>-143583.4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B6" t="n" s="0">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C6" t="n" s="0">
         <v>-27626.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B7" t="n" s="0">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C7" t="n" s="0">
         <v>-11011.0</v>
       </c>
     </row>
